--- a/improvised_data.xlsx
+++ b/improvised_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hotspot\Documents\GitHub\us-elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D86E9-6D1E-4B9D-AFDB-C27396BDB0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAF9CCC-00E2-4700-B73A-59C770976D44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{11638F64-D688-4D4B-BC49-81498E44C931}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="B1:I2000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B497" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I505"/>
+      <selection activeCell="H511" sqref="H511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
